--- a/files/Admin/converted/Bestand2.xlsx
+++ b/files/Admin/converted/Bestand2.xlsx
@@ -25,12 +25,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -322,7 +328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AB5" sqref="AB5"/>
@@ -413,9 +419,9 @@
           <t>Bestand 2 column 4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>dwadwa</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 4</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -457,9 +463,9 @@
           <t>Bestand 2 column 6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>dada</t>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 6</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -479,9 +485,9 @@
           <t>Bestand 2 column 7</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ada</t>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 2</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -523,9 +529,9 @@
           <t>Bestand 2 column 9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>dada</t>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 8</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -545,9 +551,9 @@
           <t>Bestand 2 column 10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>dada</t>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -567,9 +573,9 @@
           <t>Bestand 2 column 11</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>dada</t>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -589,9 +595,9 @@
           <t>Bestand 2 column 12</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ada</t>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 9</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">

--- a/files/Admin/converted/Bestand2.xlsx
+++ b/files/Admin/converted/Bestand2.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Bestand2Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -330,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -353,11 +353,6 @@
           <t>Dit is bestand 2 column 2</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Data bestand 2</t>
-        </is>
-      </c>
       <c r="AB1" t="inlineStr">
         <is>
           <t>Dit is bestand 2 column 28</t>
@@ -375,11 +370,6 @@
           <t>Bestand 2 column 2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>dwa</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>Bestand 2 column 2</t>
@@ -397,11 +387,6 @@
           <t>Bestand 2 column 3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>dwadwa</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>Bestand 2 column 3</t>
@@ -419,11 +404,6 @@
           <t>Bestand 2 column 4</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 4</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>Bestand 2 column 4</t>
@@ -441,11 +421,6 @@
           <t>Bestand 2 column 5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>dada</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>Bestand 2 column 5</t>
@@ -463,11 +438,6 @@
           <t>Bestand 2 column 6</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 6</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>Bestand 2 column 6</t>
@@ -485,11 +455,6 @@
           <t>Bestand 2 column 7</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Bestand 1 column 2</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>Bestand 2 column 7</t>
@@ -505,11 +470,6 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>Bestand 2 column 8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ada</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
